--- a/Ofertas..xlsx
+++ b/Ofertas..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,772 +461,1012 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.amazon.com.br/Storytelling-com-Dados-Visualiza%25C3%25A7%25C3%25A3o-Profissionais/dp/8550804681%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECMwI&amp;usg=AOvVaw015x-2GlXZuIGExFzgwOd7</t>
+          <t>https://www.google.com/url?url=https://www.amazon.com.br/Storytelling-com-Dados-Visualiza%25C3%25A7%25C3%25A3o-Profissionais/dp/8550804681%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECKsI&amp;usg=AOvVaw3cul9YRmqtfmkZQNxYzsjO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>storytelling com dados ed. colorida</t>
+          <t>storytelling com dados: um guia sobre visualização de dados para profissionais de ...</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.23999999999999</v>
+        <v>67</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.americanas.com.br/produto/5471176686/storytelling-com-dados-ed-colorida%3Fopn%3DYSMESP%26offerId%3D62daeefd4862ecc39561fe2e%26srsltid%3DAfmBOorxliqawrnwIVehmrTwu563LZDUrbR-_09tWAKZOEjD8TLyWfMd4rY&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QgOUECNoI&amp;usg=AOvVaw0ut6icuT0kHeJ5JPf1FK1o</t>
+          <t>https://www.google.com/url?url=https://dragonstorebrasil.com.br/produtos/storytelling-com-dados-um-guia-sobre-visualizacao-de-dados-para-profissionais-de-negocios-livro-com-frete-gratis-em-alguns-ceps/%3Fvariant%3D847843220%26pf%3Dmc%26srsltid%3DAfmBOooL2BgbyyfvOUUWa81WE7B8NyNKsEuYvR2VkREyT1l30TKsaN5IYkQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQgOUECLoI&amp;usg=AOvVaw1aHkp4lqZkI8Zz3mHJzh1z</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>storytelling: aprenda a contar histórias com steve jobs</t>
+          <t>storytelling com dados - edição colorida + marca página</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.04000000000001</v>
+        <v>68.65000000000001</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/livro-storytelling/p/jck5076d04/li/ledu/%3Fseller_id%3Dmegalivros-oficial%26srsltid%3DAfmBOorcKyDul1Ie6qUiMIWCgbwQSF7YxAxEYGgE8HY_qFFCgPgCYHcse_E&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECOgI&amp;usg=AOvVaw1UXwdxXzxKgbF_CIW4kGF1</t>
+          <t>https://www.google.com/url?url=https://www.americanas.com.br/produto/3894946929/storytelling-com-dados-edicao-colorida-marca-pagina%3Fopn%3DYSMESP%26offerId%3D613bbfaa09c351890ddcfe1d%26srsltid%3DAfmBOorXk0hBpY6WmD4SOf0LLkuHXb5xSc-gzTq4qDJrEHN7mBqunxpMt2Q&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECMYI&amp;usg=AOvVaw0JEl9xdA76WOutRLjaOOMi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>storytelling com dados, de knaflic, cole nussbaumer. starling alta editora e ...</t>
+          <t>storytelling com dados - vamos praticar!</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.33</v>
+        <v>56.2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/storytelling-com-dados-de-knaflic-cole-nussbaumer-starling-alta-editora-e-consultoria-eireli-capa-mole-em-portugus-2017/p/MLB19205566%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26item_id%3DMLB4637992234%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QgOUECPcI&amp;usg=AOvVaw2QYTCPDaY6FAgplt0GA75E</t>
+          <t>https://www.google.com/url?url=http://www.livrariascuritiba.com.br/storytelling-com-dados-lv509660/p%3Fidsku%3D487124%26srsltid%3DAfmBOoo164F-mPXYv0bs2d6M9mn2wR9lXd_bxqlJMBa8PtkhAAtiK4JTavU&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECNMI&amp;usg=AOvVaw3TPM0rqEgrRrWFg7XIOj_E</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>livro - dados e storytelling de impacto (effective data storytelling)</t>
+          <t>storytelling: aprenda a contar histórias com steve jobs</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.8</v>
+        <v>56.05</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.livrariascuritiba.com.br/dados-e-storytelling-de-impacto-lv500399/p%3Fidsku%3D473542%26utm_source%3Dgoogle%26utm_campaign%3Dshopping%26utm_medium%3Dcpc%26srsltid%3DAfmBOopxP17Y_Vl_vjtDMN3kVlMTRn3RAOx_byggRkh5Y-9UJ7J_HxqEvP8&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECIMJ&amp;usg=AOvVaw1EuRQuT844z4F5dr4qQ5lT</t>
+          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/storytelling-aprenda-a-contar-historias-com-steve-jobs-papa-francisco-churchill-e-outras-lendas-da-lideranca-de-carmine-gallo-starling-alta-editora-e-consultoria-eireli/p/MLB19206623%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26item_id%3DMLB4126682310%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECOEI&amp;usg=AOvVaw0itjIskF8n3L6mZAsKBCXa</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dados e storytelling de impacto (effective data storytelling)</t>
+          <t>data storytelling - planejando e contando a história dos dados</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.90000000000001</v>
+        <v>134.16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.travessa.com.br/dados-e-storytelling-de-impacto/artigo/54C683A2-98F1-4FC5-A74B-8F12171757D8%3Fpcd%3D041%26srsltid%3DAfmBOoqdyqJHQk2rquzDQ7xyWBrnAzEutBT2iAAwDRhK0f0mDWCgxZmddgU&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECJIJ&amp;usg=AOvVaw2kemjHxbdJA7T8mq8PftV6</t>
+          <t>https://www.google.com/url?url=https://www.travessa.com.br/data-storytelling-planejando-e-contando-a-historia-dos-dados/artigo/17F6DC61-8305-4ED2-BC16-BFE5BDC8B14D%3Fpcd%3D041%26srsltid%3DAfmBOoqXP3fNNR46BynxZNdfFATzpLZn-N7F3BarnPrI2fsSflJ6JDHXsac&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECO4I&amp;usg=AOvVaw2NUXyTn4FrRccb0W_-AF-P</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>storytelling com dados: um guia sobre visualização de dados para profissionais de ...</t>
+          <t>data story - explique dados e inspire ações por meio de histórias</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67</v>
+        <v>84.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://dragonstorebrasil.com.br/produtos/storytelling-com-dados-um-guia-sobre-visualizacao-de-dados-para-profissionais-de-negocios-livro-com-frete-gratis-em-alguns-ceps/%3Fvariant%3D847843220%26pf%3Dmc%26srsltid%3DAfmBOooWR751x_WfeTVD9X4aPQJJNSK3tEDnPTaDzTGQRzY9UuZU2mpFUtw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QgOUECKEJ&amp;usg=AOvVaw3JBC3WfwpmrtZfLOoeeCsn</t>
+          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/livro-data-story/p/jc125ca5ah/li/adml/%3Fseller_id%3Dartclubbooks%26srsltid%3DAfmBOopwRw-lX1GZrjK5C1xQGJf_N3O33oajSY9eq086YZegfCehC7quUJQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECP0I&amp;usg=AOvVaw00CJetpKO6uuMZIkG8wyl4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>storytelling com dados - edição colorida + marca página</t>
+          <t>storytelling com dados, de knaflic, cole nussbaumer. starling alta editora e ...</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.65000000000001</v>
+        <v>73.33</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.americanas.com.br/produto/3894946929/storytelling-com-dados-edicao-colorida-marca-pagina%3Fopn%3DYSMESP%26offerId%3D613bbfaa09c351890ddcfe1d%26srsltid%3DAfmBOoojfmQOsJ_6lPAYb1qxKCEYpm3UL3Y9wRK0E8A2Rl9sthF-Pq_HGcc&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECLsJ&amp;usg=AOvVaw0AklzjRcbMRPbZxK-GtcCx</t>
+          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/storytelling-com-dados-de-knaflic-cole-nussbaumer-starling-alta-editora-e-consultoria-eireli-capa-mole-em-portugus-2017/p/MLB19205566%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26item_id%3DMLB4637992234%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQgOUECIsJ&amp;usg=AOvVaw0dFPOBxCtLjF_h2KAV0D7y</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>business intelligence e análise de dados para gestão do negócio</t>
+          <t>ciência de dados - fundamentos e aplicações</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152</v>
+        <v>135.95</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://loja.grupoa.com.br/business-intelligence-e-analise-de-dados-4ed9788582605196-p1005806%3Ftsid%3D16&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECPUJ&amp;usg=AOvVaw0ER2rnD4IB8LGOfBh-97yA</t>
+          <t>https://www.google.com/url?url=https://www.submarino.com.br/produto/7489282232/ciencia-de-dados-fundamentos-e-aplicacoes%3Fopn%3DYSMESP%26offerId%3D65eee601cc553093859d0023&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECJkJ&amp;usg=AOvVaw2VkL1_QCtTb2-OgM88Orf3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>comunicação inteligente e storytelling</t>
+          <t>livro - dados e storytelling de impacto (dykes/benvira)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>70.47</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/comunicacao-inteligente-e-storytelling-1518378561/p/1518378561%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1518378561%26idLojista%3D17314%26tipoLojista%3D3P%26srsltid%3DAfmBOopYpnjsUmaK1BaljQ4xkIv7qL0IUOWAfVUgUG4--P_lQiz04Ylpluw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECIMK&amp;usg=AOvVaw3puyRzDYnTNV92ZgUTiHnw</t>
+          <t>https://www.google.com/url?url=https://www.estantevirtual.com.br/livros/dykes-brent/dados-e-storytelling-de-impacto-dykes-benvira/659017949%3Flivro_novo%3D1%26b_order%3Dpreco&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQgOUECKYJ&amp;usg=AOvVaw1I2OSBINvLZM0vp5i-er3r</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>storytelling com dados - vamos praticar!</t>
+          <t>storytelling com dados ed. colorida</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.92</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.book7.com.br/storytelling-com-dados-9788550817545/p%3Fidsku%3D320781&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECJAK&amp;usg=AOvVaw2lS_q8OuckfL1NJAj1YHju</t>
+          <t>https://www.google.com/url?url=https://www.americanas.com.br/produto/5471176686/storytelling-com-dados-ed-colorida%3Fopn%3DYSMESP%26offerId%3D62daeefd4862ecc39561fe2e%26srsltid%3DAfmBOoqOkHf48WShTmrDF32XKxCyOsKEnZelnmA0lAnJNjaGRfw6d4wL51Y&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQgOUECMIJ&amp;usg=AOvVaw2LUHJJICb5uM33P9sKxDVG</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>livro - dados e storytelling de impacto (dykes/benvira)</t>
+          <t>a arte da estatística - como aprender a partir de dados</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.56999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.estantevirtual.com.br/livros/dykes-brent/dados-e-storytelling-de-impacto-dykes-benvira/659017949%3Flivro_novo%3D1%26b_order%3Dpreco&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QgOUECKkK&amp;usg=AOvVaw3-fntap2O8UUU3U_N8oT4G</t>
+          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/a-arte-da-estatistica-1554725644/p/1554725644%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1554725644%26idLojista%3D17314%26tipoLojista%3D3P%26srsltid%3DAfmBOoqS52qsSFxxNUfxG4P_60A4zcY8tftiHmDU-nALRGfII-UBd3rXNbM&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECN4J&amp;usg=AOvVaw3SdU6s4HgXYDCVD3MXWtLh</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>data story - explique dados e inspire ações por meio de histórias</t>
+          <t>btk: meu pai</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>55.93</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.doispontos.com.br/data-story-9786555203011/p%3Fidsku%3D323303&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECLcK&amp;usg=AOvVaw2UCptBqrQ_piSxeN4YvEqy</t>
+          <t>https://www.google.com/url?url=https://www.martinsfontespaulista.com.br/btk--meu-pai-964359/p%3Fidsku%3D964359%26srsltid%3DAfmBOoolcxx8YA9yvHoFyEjUZTdGimiyy7qFKhmJWk-Y2Vs-0Azbn06XJsk&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECO0J&amp;usg=AOvVaw3LNMVjW_6AyVwi5-k5TNPp</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>governança de dados - práticas, conceitos e novos caminhos</t>
+          <t>comunicação inteligente e storytelling</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.83</v>
+        <v>62.9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.shoptime.com.br/produto/7471244699/governanca-de-dados%3Fopn%3DYSMESP%26offerId%3D6522ee3fcc55309385fad601%26srsltid%3DAfmBOopBwa9r28_J6VYiR2N3f2R69wagNuVcRuafxN8pBfRVIA6EhpV2AC0&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECMUK&amp;usg=AOvVaw16DUHNEgkupov76ceA8mY6</t>
+          <t>https://www.google.com/url?url=https://shopee.com.br/product/435505173/8766734178%3Fgsht%3DMaNhXjMRjbKbgyH1%26srsltid%3DAfmBOoovaVw5ajwsNWhP7FUT6h0bsjS6zCNPAVofUlYun5VF1cfDO15mLuE&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECIkK&amp;usg=AOvVaw0ySF-bq-WJbC_tlwfdIloL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ciência de dados - fundamentos e aplicações</t>
+          <t>inteligência artificial, análise e ciência de dados - vol. 1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.92</v>
+        <v>107.02</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.grupogen.com.br/livro-ciencia-de-dados-fundamentos-e-aplicacoes-andre-c-p-l-f-de-carvalho-angelo-g-menezes-robson-p-bonidia-editora-ltc-9788521638759%3Fsrsltid%3DAfmBOoooocEjP_4Z_KwxTpbaHBQs9z0nru8XeWAVfDdrgRAPHz0WosiipjQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECNQK&amp;usg=AOvVaw2QwZIYzPGh5Qls5CY_0plN</t>
+          <t>https://www.google.com/url?url=https://www.doispontos.com.br/inteligencia-artificial--analise-e-ciencia-de-dados---vol--1-9786555584592/p%3Fidsku%3D449748&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECJgK&amp;usg=AOvVaw1MWTxTTCxuMxgKimr4rGPr</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>o guia completo do business intelligence: fundamentos e práticas da análise de ...</t>
+          <t>fundamentos de engenharia de dados</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.26000000000001</v>
+        <v>122.1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.submarino.com.br/produto/7464444546/livro-o-guia-completo-do-business-intelligence-fundamen%3Fopn%3DYSMESP%26offerId%3D64d6a2a7579fbc8d91810c3a&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECO8K&amp;usg=AOvVaw0Km1SaKvZIzC_piS214Mha</t>
+          <t>https://www.google.com/url?url=https://www.shoptime.com.br/produto/7476268334/fundamentos-de-engenharia-de-dados-projete-e-construa-sistemas-de-dados-robustos%3Fopn%3DYSMESP%26offerId%3D6564851fcc55309385cc8391%26srsltid%3DAfmBOoo9ZWo3JRMB3Duvsw0nLlBdXelohL65SqQbtM6d2I3C0e44amrKePY&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECKYK&amp;usg=AOvVaw0544t-7kcvObHhfAdvEvuR</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>estruturas de dados e algoritmos com javascript</t>
+          <t>governança de dados - práticas, conceitos e novos caminhos</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.09999999999999</v>
+        <v>63.75</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.martinsfontespaulista.com.br/estruturas-de-dados-e-algoritmos-com-javascript-865204/p%3Fidsku%3D865204%26srsltid%3DAfmBOoqttUUdIbc35F9L53OTiYQ5QuEiYcAe6j0kYFu8P_Ev8lh1JlH0_Ck&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECIsL&amp;usg=AOvVaw3IJwjnPg47FJSLEvYCAJj-</t>
+          <t>https://www.google.com/url?url=https://www.extra.com.br/governanca-de-dados-1502979305/p/1502979305%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1502979305%26idLojista%3D14404%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECLMK&amp;usg=AOvVaw2ZZXEX84dAUfjK9MxreQLX</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fundamentos de engenharia de dados</t>
+          <t>sql para análise de dados</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.44</v>
+        <v>88.78</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.amazon.com.br/Fundamentos-Engenharia-Dados-Construa-Sistemas/dp/8575228765%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECJkL&amp;usg=AOvVaw0Yt8fLHweoiZYn5vOqHWq7</t>
+          <t>https://www.google.com/url?url=https://www.book7.com.br/sql-para-analise-de-dados-9786586057751/p%3Fidsku%3D300653&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECMIK&amp;usg=AOvVaw2TfotVWmm9DlwlfYUg6-qb</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>storytelling: aprenda a contar histórias com steve jobs,papa francisco,churchill ...</t>
+          <t>design como storytelling, o</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.7</v>
+        <v>135</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.blulivro.com.br/storytelling-aprenda-a-contar-historias-com-steve-jobs-papa-francisco-churchill-e-outras-lendas%3Futm_source%3Dgoogle%26utm_medium%3DShopping%26utm_campaign%3Dstorytelling-aprenda-a-contar-historias-com-steve-jobs-papa-francisco-churchill-e-outras-lendas%26inStock%3D%26srsltid%3DAfmBOoooUVncJOlNOhitpTjlG9tJK3aR8iaFvSWehDGoP9fIN6FIlkFiapA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECLUL&amp;usg=AOvVaw0jnrpZkfC7vgdZPn8GwVgQ</t>
+          <t>https://www.google.com/url?url=https://www.editoraolhares.com.br/produto/design-como-storytelling-o-ellen-lupton&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECNAK&amp;usg=AOvVaw1kEwH0clZrbyCu-AQGTzts</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>story: substância, estrutura, estilo e os princípios da escrita</t>
+          <t>o guia completo do business intelligence: fundamentos e práticas da análise de ...</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.9</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.extra.com.br/robert-mckee-1556131675/p/1556131675%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1556131675%26idLojista%3D112042%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECMUL&amp;usg=AOvVaw37p4mQx_weE82PfjRHOPwF</t>
+          <t>https://www.google.com/url?url=https://www.amazon.com.br/guia-completo-business-intelligence/dp/6500733541%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECN4K&amp;usg=AOvVaw0_ci5SdTfhuc-vZHOOz44C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>storyselling a arte das narrativas milionárias</t>
+          <t>banco de dados - teoria e desenvolvimento</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.59999999999999</v>
+        <v>94.13</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.carrefour.com.br/storyselling-dvs-mp932882244/p&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECNIL&amp;usg=AOvVaw1VUO6raTs6FKXpJ1oa2yFg</t>
+          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/banco-de-dados-teoria-e-desenvolvimento-2-ed-1546126058/p/1546126058%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1546126058%26idLojista%3D14404%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECO0K&amp;usg=AOvVaw0gcF1eXRF_Q4Z5Q9yE_LiU</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dados e storytelling de impacto (effective data storytelling)</t>
+          <t>introdução a ciência de dados</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>70.45999999999999</v>
+        <v>89</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/dados-e-storytelling-de-impacto-effective-data-storytelling-1560876066/p/1560876066%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1560876066%26idLojista%3D17314%26tipoLojista%3D3P%26srsltid%3DAfmBOoqTdkyu3bTD9bOsACXJB_-LQtsKYo5jPCw9cgfl9MLXm_D440yBoSw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QgOUECOEL&amp;usg=AOvVaw29AxHoda7ON0JJ_JO3ZzXU</t>
+          <t>https://www.google.com/url?url=https://www.livrariavanguarda.com.br/produto/introducao-a-ciencia-de-dados-mineracao-de-dados-e-big-data-184766&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECPwK&amp;usg=AOvVaw3xi_1uOqrUtGmc-u-TYZdy</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>storytelling: aprenda a contar histórias com steve jobs, papa francisco ...</t>
+          <t>dados e storytelling de impacto</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://dragonstorebrasil.com.br/produtos/storytelling-aprenda-a-contar-historias-com-steve-jobs-papa-francisco-churchill-e-outras-lendas-livro-com-frete-gratis-em-alguns-ceps/%3Fvariant%3D854968458%26pf%3Dmc%26srsltid%3DAfmBOorPrcZMfXseqlrC-xGtdUqGR-C52agJayCZRxcCYNW5h5YMKKhMIUA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QgOUECP0L&amp;usg=AOvVaw2ox6Aj8uUU2AcYucbRCAoT</t>
+          <t>https://www.google.com/url?url=https://www.vitrola.com.br/negocios/dados-e-storytelling-de-impacto%3Fparceiro%3D5401%26srsltid%3DAfmBOoqF0AeB4ttdv5EUpPowZCMIKG79xoYid43riVLmZvLOrhxpaCVuD84&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECIkL&amp;usg=AOvVaw3DZmDv33dMuJIIaqcOIYh5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>introdução a ciência de dados</t>
+          <t>storytelling - cativando com a narrativa - técnicas para criar conexão</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89</v>
+        <v>104.3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.livrariavanguarda.com.br/produto/introducao-a-ciencia-de-dados-mineracao-de-dados-e-big-data-184766&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECIsM&amp;usg=AOvVaw1vnhuZWP4IuqEAaaW3LNWx</t>
+          <t>https://www.google.com/url?url=https://www.carrefour.com.br/storytelling-cativando-com-a-narrativa-mp931942493/p&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECJYL&amp;usg=AOvVaw35qWPdJ83BtJq8iqU5hhRx</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>histórias que inspiram</t>
+          <t>estruturas de dados e algoritmos com javascript</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://videeditorial.com.br/historias-que-inspiram&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECJkM&amp;usg=AOvVaw2IavqLpTFcyFH1alWASHpo</t>
+          <t>https://www.google.com/url?url=https://www.cienciamoderna.com.br/estruturas-de-dados-e-algoritmos-com-javascript--2-edicao/p%3Fidsku%3D4848&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECLEL&amp;usg=AOvVaw0lNvatD73aaE96d0pXzIBO</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fundamentos de python - estruturas de dados</t>
+          <t>storynomics: conecte sua marca aos seus clientes através do storytelling</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.90000000000001</v>
+        <v>117</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.sbs.com.br/produto/fundamentos-de-python-estruturas-de-dados-traducao-da-2a-edicao-norte-americana.html%3Fsrsltid%3DAfmBOoqPCwvNFTEzU_0rAHCW9rTOsY1bNCaPYEDQPwKXNcEJ0vvlnFWrLfE&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECKoM&amp;usg=AOvVaw0ckPsnbytxKWh6dw-gS_gN</t>
+          <t>https://www.google.com/url?url=https://www.amazon.com.br/Storynomics-Conecte-clientes-atrav%25C3%25A9s-storytelling/dp/B0CY2WF2YT%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DALUH3BH5TO7AR&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQgOUECL4L&amp;usg=AOvVaw11T1scR2xQq01t9bVRjqHL</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>storybrand: crie mensagens claras</t>
+          <t>estruturas de dados e seus algoritmos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68</v>
+        <v>154.28</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.disal.com.br/produto/5669863-Storybrand-Crie-Mensagens-ClarasE%3Fsrsltid%3DAfmBOorhUZbS3VXwDASK-WfGGVqMzpyguecyixIueRwnVYVP_aZi4kLJAT8&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECLkM&amp;usg=AOvVaw11Xvxz2VdkEREDzPMMbqQB</t>
+          <t>https://www.google.com/url?url=https://www.odontomedi.com.br/ciencias-exatas/livro-estruturas-de-dados-e-seus-algoritmos%3Fparceiro%3D2457%26srsltid%3DAfmBOopEmXIKMh8FmDXWKXGzkUtclpeIzOQqIB6rhbZtWctRg0wQ1lmFByM&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECNwL&amp;usg=AOvVaw0Am3Wnl-EMU2fCyYRlK-_D</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>fundamentos de bancos de dados</t>
+          <t>storytelling e suas aplicações no mundo dos negócios</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>132</v>
+        <v>118.4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://livrariapontadelanca.com.br/produto/fundamentos-de-bancos-de-dados/%3Fsrsltid%3DAfmBOorw-eLny9UrZbDCnvzHUBccLMnuFtYVtn59kaefSA_znVKqTqM3-TM&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECMcM&amp;usg=AOvVaw3Z8kpwBS4_QE9ZTnNiUe2b</t>
+          <t>https://www.google.com/url?url=https://livrariaconcursar.com.br/storytelling-e-suas-aplicacoes-no-mundo-dos-negocios%3Fsrsltid%3DAfmBOorpdgDWZ4l-fE6XgUk2qkWUWo0itDhzxsuKGFJ-OcoUuDhFxuDAYCM&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECOoL&amp;usg=AOvVaw0BXzHg_G9himmgTs__91Xh</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>storytelling com dados um guia sobre visualização de dados para profissionais de ...</t>
+          <t>estruturas de dados e algoritmos com python - novatec</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>93.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.apagina.com.br/275607-storytelling-com-dados-um-guia-sobre-visualizacao-de-dados-para-profissionais-de-negocios/p%3Fidsku%3D27002%26srsltid%3DAfmBOorXHzObp9JJcsCN7pJlYts76PnTfi3hzQyaLbe44bUoQfFpkqPFIFI&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QgOUECNYM&amp;usg=AOvVaw1g-VdweMb4Faa48Bha_PJl</t>
+          <t>https://www.google.com/url?url=http://www.livrariascuritiba.com.br/estruturas-de-dados-e-algoritmos-com-python-lv511127/p%3Fidsku%3D489172%26srsltid%3DAfmBOoq35gcGLl5mEvkbY53MDxPVQzV5thhU9tsYFB7OESc7t5KDzfX0yig&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECPcL&amp;usg=AOvVaw1XEfnVyx47BUfwT71EGEW4</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fundamentos de python para ciência de dados</t>
+          <t>5 lições de storytelling - o best-seller</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.adrianolivros.com.br/fundamentos-de-python-para-ciencia-de-dados/p&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECOQM&amp;usg=AOvVaw05PbAviKjj0hoGzSY2oCXU</t>
+          <t>https://www.google.com/url?url=https://www.selectalivros.com.br/livros/5-licoes-de-storytelling-%3Fparceiro%3D3587&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECIUM&amp;usg=AOvVaw1bfitghQVso3hnoIdP31FX</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>data storytelling - planejando e contando a história dos dados</t>
+          <t>a cor dos dados</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>134.16</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.travessa.com.br/data-storytelling-planejando-e-contando-a-historia-dos-dados/artigo/17F6DC61-8305-4ED2-BC16-BFE5BDC8B14D%3Fpcd%3D041%26srsltid%3DAfmBOopk5pQZUEPoUdpPwiBV1dHb5PqJkVGLULwUa6934arwn3UjvvJQTaM&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECI4N&amp;usg=AOvVaw2uC51hQtXDn2xh-kvYXF8k</t>
+          <t>https://www.google.com/url?url=https://www.doispontos.com.br/a-cor-dos-dados-9788575228524/p%3Fidsku%3D425508&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECJIM&amp;usg=AOvVaw3u55ujAw-pobs6SuELSNkk</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>storytelling com dados - edição colorida (sortido)</t>
+          <t>dados e storytelling de impacto: como usar numeros, imagens e historias par</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>93.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://superlivro.com.br/produtos/storytelling_com_dados_-_edicao_colorida/%3Fvariant%3D835133117%26pf%3Dmc&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QgOUECKsN&amp;usg=AOvVaw0sY4w2uHVtZ21HJOhWAn25</t>
+          <t>https://www.google.com/url?url=https://livrariapontadelanca.com.br/produto/dados-e-storytelling-de-impacto-como-usar-numeros-imagens-e-historias-par/%3Fsrsltid%3DAfmBOoq3oWX0h6B1Hc0mv9YyHrfWEd8EeRWMhsA5J6Mq7lUF5kD8bQ7GU78&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQgOUECKAM&amp;usg=AOvVaw2o_LVeYrEAmdKGvNHVoDV0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>storyworthy: engage, teach, persuade, and change your life through the power of ...</t>
+          <t>5 lições de storytelling</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>103.9</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://imusic.br.com/books/9781608685486/matthew-dicks-2018-storyworthy-engage-teach-persuade-and-change-your-life-through-the-power-of-storytelling-paperback-book%3Futm_source%3Dgoogle%26utm_medium%3Dcpc%26utm_campaign%3Dshopping-BR%26srsltid%3DAfmBOor1SuPH-DnZYdShnHZG_TDZ4CvfL1bZ-RSJvxpZgXlbXa_WFGMR5-E&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECLkN&amp;usg=AOvVaw2PkiSi9LGupAK7pIWs2YNW</t>
+          <t>https://www.google.com/url?url=https://estacaocultural.com.br/produto/5-licoes-de-storytelling-james-mcsill/30084435/1137903&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECKwM&amp;usg=AOvVaw0cCTCQuzHyxh1qmN5UmgcD</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>storytelling e suas aplicações no mundo dos negócios</t>
+          <t>otimize seu aprendizado</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>117.66</v>
+        <v>52.29</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/livro-storytelling-e-suas-aplicacoes-no-mundo-dos-negocios/p/cajgk3bgk3/li/adml/%3Fseller_id%3Dartclubbooks%26srsltid%3DAfmBOopIaA3yS61sSr6d-UIVE6fgckJCHP-paxmwcRLpPwJxWXjoimqQGnw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECNMN&amp;usg=AOvVaw3TDitzT4_Qzx95WT6KWNP1</t>
+          <t>https://www.google.com/url?url=https://www.megalivros.com.br/livros/educacao/otimize-seu-aprendizado-94-dicas-praticas&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECNMM&amp;usg=AOvVaw3ADoQUtosvIkFW1IpDGs8x</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>storytelling na prática: 10 regras simples para contar uma</t>
+          <t>storytelling: aprenda a contar histórias com steve jobs, papa francisco ...</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>51.51</v>
+        <v>55</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.submarino.com.br/produto/2703813981/storytelling-na-pratica-10-regras-simples-para-co%3Fopn%3DYSMESP%26offerId%3D6267aeb587c00289c2749601&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECOAN&amp;usg=AOvVaw3fK8KV3LJALplzeJN6pGj3</t>
+          <t>https://www.google.com/url?url=https://dragonstorebrasil.com.br/produtos/storytelling-aprenda-a-contar-historias-com-steve-jobs-papa-francisco-churchill-e-outras-lendas-livro-com-frete-gratis-em-alguns-ceps/%3Fvariant%3D854968458%26pf%3Dmc%26srsltid%3DAfmBOorbKKofFxkitOpXm8U2NiPuk1Ox2Dkf77jzJlX4f0TBth-EBuRsOxM&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQgOUECOEM&amp;usg=AOvVaw3BnjggT2fzblpawYq0hu0D</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sql para análise de dados</t>
+          <t>storytelling na prática: 10 regras simples para contar uma</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.1</v>
+        <v>59.9</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.livrariascuritiba.com.br/sql-para-analise-de-dados-lv492623/p%3Fidsku%3D463020%26utm_source%3Dgoogle%26utm_campaign%3Dshopping%26utm_medium%3Dcpc%26srsltid%3DAfmBOoqBDChdVBnNqiV7vlZc6eI0hMOcxIFcTFEGXHUsez40DzQ65S6-wu4&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECO8N&amp;usg=AOvVaw0HnaHGlz9ciclVLaTyZ0qi</t>
+          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/storytelling-na-pratica-10-regras-simples-para-contar-uma-boa-historia-ubook/p/cb5h92acga/li/lhgr/%3Fseller_id%3Dlojaoateneum%26srsltid%3DAfmBOooqbFB1hJrgTlvEFyfJmwi6QpbQs2nj349VjCaGese_K6qZwT2siS8&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECO0M&amp;usg=AOvVaw1ymJX7mqJSNiXkGBE0rCNj</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>colonialismo de dados: como opera a trincheira algorítmica</t>
+          <t>python para ciência de dados</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.poupalivros.com.br/tecnicos-e-profissionais/ciencias-humanas-e-sociais/colonialismo-de-dados&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECIoO&amp;usg=AOvVaw3d0SSdzm-mg6LHT8sa_cbC</t>
+          <t>https://www.google.com/url?url=https://www.martinsfontespaulista.com.br/python-para-ciencia-de-dados-1046393/p%3Fidsku%3D1046393%26srsltid%3DAfmBOopHLrGba5I6SWJpchJ-UGW4kmYWoCx4qW63ZqSULesgnxYFwDMFkkQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECIoN&amp;usg=AOvVaw1LiaBGkeaTLff0GRBY5c4t</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>design is storytelling</t>
+          <t>storytelling com dados um guia sobre visualização de dados para profissionais de ...</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>143.65</v>
+        <v>75.12</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.martinsfontespaulista.com.br/design-is-storytelling-953031/p%3Fidsku%3D953031%26srsltid%3DAfmBOoqEvTBXLGcFO_scxSU9YJE4UVLEFKZs9tV_Q1WDg1w66OA4lCJdVSs&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECKcO&amp;usg=AOvVaw0BX_4S1L0zOpljDJJDLTS8</t>
+          <t>https://www.google.com/url?url=https://www.apagina.com.br/275607-storytelling-com-dados-um-guia-sobre-visualizacao-de-dados-para-profissionais-de-negocios/p%3Fidsku%3D27002%26srsltid%3DAfmBOoqAiYcwt22UXJosS9RAm6zUs1uK-xMckAH06RfoDeLUK9YBiBGEJVA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQgOUECJsN&amp;usg=AOvVaw1U9Aw9aJotxfYUbQnjgkFf</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>storytelling com dados: um guia sobre visualizacao de dados para profission</t>
+          <t>story: substância, estrutura, estilo e os princípios da escrita</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.90000000000001</v>
+        <v>109.9</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://livrariapontadelanca.com.br/produto/storytelling-com-dados-um-guia-sobre-visualizacao-de-dados-para-profission/%3Fsrsltid%3DAfmBOoqGedR9_nQ6xs0oXPXoYqE8-ge8GG9mFP1sUERZZtHIFKTwW9439yc&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QgOUECLYO&amp;usg=AOvVaw0xhMIgmcTbi2QOHLF7G0GB</t>
+          <t>https://www.google.com/url?url=https://www.livrariadavila.com.br/93840-story-substancia-estrutura-estilo-e-os/p%3Fidsku%3D93840&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECLcN&amp;usg=AOvVaw3FQoODyyoXC-cAbY-qERSa</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>a cor dos dados</t>
+          <t>dados e storytelling de impacto (effective data storytelling)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.doispontos.com.br/a-cor-dos-dados-9788575228524/p%3Fidsku%3D425508&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QguUECN8O&amp;usg=AOvVaw0mmW8Q_9we1FZcLxtRSJhQ</t>
+          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/dados-e-storytelling-de-impacto-effective-data-storytelling-1560876066/p/1560876066%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1560876066%26idLojista%3D17314%26tipoLojista%3D3P%26srsltid%3DAfmBOorcJYFEl8XsCgX5qWO9MsOUN_Q4WryZcj59Tvdvea0kgULELzhh5qM&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQgOUECMYN&amp;usg=AOvVaw2rG0klPB7m1j-o_LQnaKip</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>dados e storytelling impacto effective data storytelling 1</t>
+          <t>construa uma carreira em ciência de dados</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>68.16</v>
+        <v>80</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/dados-e-storytelling-impacto-effective-data-storytelling-1-1564657498/p/1564657498%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1564657498%26idLojista%3D12231%26tipoLojista%3D3P%26srsltid%3DAfmBOoqWi4O-dEF9y1wp44fLjXgUuwuEJd7VxCkXxFyOzJgjtXi5wN3lc24&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzz7_AgMeGAxUWKLkGHTW8Bt8QgOUECO4O&amp;usg=AOvVaw1E49G--Ge43n2yrz83zbYl</t>
+          <t>https://www.google.com/url?url=https://www.cienciamoderna.com.br/construaumacarreiraemcienciadedados/p%3Fidsku%3D6675&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECNQN&amp;usg=AOvVaw0nvwGiRlYeRbcEYjwBSCJt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Storytelling com Dados: um Guia Sobre Visualização de Dados Para Profissionais de Negócios - Cole Nussbaumer Knaflic - 9788550804682</t>
+          <t>colonialismo de dados: como opera a trincheira algorítmica</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.2</v>
+        <v>50</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/livros/storytelling-com-dados-um-guia-sobre-visualizacao-de-dados-para-profissionais-de-negocios-cole-nussbaumer-knaflic-9788550804682?_lc=88&amp;searchterm=livro%20storytelling%20com%20dados</t>
+          <t>https://www.google.com/url?url=https://superlivro.com.br/produtos/colonialismo_de_dados/%3Fvariant%3D844270401%26pf%3Dmc&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECOEN&amp;usg=AOvVaw0zVZ8743mhKLi1JuOypmmk</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Storytelling Com Dados - Edição Colorida + Marca Página</t>
+          <t>livro - dados e storytelling de impacto (effective data storytelling)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>92.54000000000001</v>
+        <v>72</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=653608614&amp;channel=86&amp;index=1&amp;searchterm=livro%20storytelling%20com%20dados</t>
+          <t>https://www.google.com/url?url=https://www.editoradodireito.com.br/livro-dados-e-storytelling-de-impacto-effective-data-storytelling-brent-dykes-benvira-9786558100423%3Fsrsltid%3DAfmBOorRpspmJHTDpUKQ8KI2BgNJgkLbRkwtuyHbTaPxCU7rOR6ByGEXQXE&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECO4N&amp;usg=AOvVaw2NlRkrSgFl4CASLZUxm-6V</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Storytelling Com Dados - Edição Colorida</t>
+          <t>microsoft power bi</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93.90000000000001</v>
+        <v>74.88</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=1278853881&amp;channel=86&amp;index=2&amp;searchterm=livro%20storytelling%20com%20dados</t>
+          <t>https://www.google.com/url?url=https://videeditorial.com.br/microsoft-power-bi&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECJkO&amp;usg=AOvVaw3pKuy0kSvVH_5HjHZhPuwj</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Storytelling Com Dados - Edição Colorida</t>
+          <t>lógica de programação e estruturas de dados</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77.47</v>
+        <v>122</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=1085686180&amp;channel=86&amp;index=3&amp;searchterm=livro%20storytelling%20com%20dados</t>
+          <t>https://www.google.com/url?url=https://loja.grupoa.com.br/logica-de-programacao-e-estruturas-de-dados9788543019147-p1005372%3Ftsid%3D157&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECKgO&amp;usg=AOvVaw25G-WUd0n4grh07ipdL-1K</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Storytelling Com Dados - Edição Colorida</t>
+          <t>5 lições de storytelling - persuasão, negociação e vendas</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>77.47</v>
+        <v>89</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=1082167515&amp;channel=86&amp;index=5&amp;searchterm=livro%20storytelling%20com%20dados</t>
+          <t>https://www.google.com/url?url=https://grafipel.com.br/produto/5-licoes-de-storytelling-persuasao-negociacao-e-vendas/%3Fsrsltid%3DAfmBOoo4bW0gRiyBlui3JwdqjteScoWEtRHx40mI3ly09A8a9rLH2h6dHbk&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECNEO&amp;usg=AOvVaw3SR69Nxp3VPJ8O6OfvX8ea</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Storytelling Com Dados - Edição Colorida</t>
+          <t>marketing digital baseado em dados - métricas e performance</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>77.47</v>
+        <v>87</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=1080965664&amp;channel=86&amp;index=1&amp;searchterm=livro%20storytelling%20com%20dados</t>
+          <t>https://www.google.com/url?url=https://livrariaintersaberes.com.br/produtos/marketing-digital-baseado-em-dados-metricas-e-performance%3Fsrsltid%3DAfmBOopMbGjUYk8-BW58CbKwjD5oCkRw6DgWSYX7ZINpkHhrbkRMT2k4Ong&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjzkr-TuduGAxVvr5UCHdA6DEAQguUECN4O&amp;usg=AOvVaw1yN-ujiifW-MHJ7TLBHveg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>apple iphone 14 128gb 6.1 azul mpvn3ql/a</t>
+          <t>Storytelling com Dados: um Guia Sobre Visualização de Dados Para Profissionais de Negócios - Cole Nussbaumer Knaflic - 9788550804682</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3742.49</v>
+        <v>56.2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-iphone-14-128gb-6.1/139331604/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D17677383%26country%3Dbr%26srsltid%3DAfmBOooddcacf8Q_zv8tjbiwQ_RGQeWdm9RiJyRaaRscE5znHO2ZZ24ck8g&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiB2PrIgMeGAxXJGLkGHXp0AB0QguUECIIM&amp;usg=AOvVaw2bVp9g6y4Cpronm3k7cObg</t>
+          <t>https://www.buscape.com.br/livros/storytelling-com-dados-um-guia-sobre-visualizacao-de-dados-para-profissionais-de-negocios-cole-nussbaumer-knaflic-9788550804682?_lc=88&amp;searchterm=livro%20storytelling%20com%20dados</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>iphone 14 128gb branco</t>
+          <t>Livro Storytelling Com Dados - Um Guia Sobre Visualizacao</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3100</v>
+        <v>100.79</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.brcelulares.com.br/produtos/iphone-14-128gb-branco/%3Fvariant%3D840920638%26pf%3Dmc&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiB2PrIgMeGAxXJGLkGHXp0AB0QgOUECNcM&amp;usg=AOvVaw12VFE035k1-qGNBnmIxblt</t>
+          <t>https://www.buscape.com.br/lead?oid=1030777351&amp;channel=86&amp;index=1&amp;searchterm=livro%20storytelling%20com%20dados</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>apple iphone 14 128gb 6.1 azul mpuf3ql/a</t>
+          <t>Storytelling Com Dados - Edição Colorida + Marca Página</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3742.49</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-iphone-14-128gb-6.1/139331605/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D17677384%26country%3Dbr%26srsltid%3DAfmBOooWF-OLF1lQHIfELwdoUmTaPrxhDjbYuCslsHX0F9aOn2Bbp0t-zfA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiB2PrIgMeGAxXJGLkGHXp0AB0QguUECJgN&amp;usg=AOvVaw3ZCK6VFupyKRDaxp3GOcIg</t>
+          <t>https://www.buscape.com.br/lead?oid=947602853&amp;channel=86&amp;index=2&amp;searchterm=livro%20storytelling%20com%20dados</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>iphone 14 128gb - branco - como novo - grade a</t>
+          <t>Storytelling Com Dados - Edição Colorida + Marca Página</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3641.4</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.outletdocelular.com.br/iphone/iphone-14-128gb%3Fvariant_id%3D8037%26parceiro%3D2710%26srsltid%3DAfmBOoohXafLk9CsHkRlN24e9m-hy6BXOWSV8I8QiXPLSTRuDXf_Km9kMGU&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiB2PrIgMeGAxXJGLkGHXp0AB0QgOUECPAO&amp;usg=AOvVaw0Ols9svjOUdQAuVySkO2aX</t>
+          <t>https://www.buscape.com.br/lead?oid=947516553&amp;channel=86&amp;index=3&amp;searchterm=livro%20storytelling%20com%20dados</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>Storytelling Com Dados - Edição Colorida + Marca Página</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>88.65000000000001</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/lead?oid=947516066&amp;channel=86&amp;index=5&amp;searchterm=livro%20storytelling%20com%20dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Storytelling Com Dados - Edição Colorida + Marca Página</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/lead?oid=653608614&amp;channel=86&amp;index=1&amp;searchterm=livro%20storytelling%20com%20dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Storytelling Com Dados - Edição Colorida</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/lead?oid=1278853881&amp;channel=86&amp;index=2&amp;searchterm=livro%20storytelling%20com%20dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Storytelling Com Dados - Edição Colorida</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/lead?oid=1085686180&amp;channel=86&amp;index=3&amp;searchterm=livro%20storytelling%20com%20dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Storytelling Com Dados - Edição Colorida</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/lead?oid=1082167515&amp;channel=86&amp;index=9&amp;searchterm=livro%20storytelling%20com%20dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Storytelling Com Dados - Edição Colorida</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/lead?oid=1080965664&amp;channel=86&amp;index=1&amp;searchterm=livro%20storytelling%20com%20dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>apple iphone 14 128gb 6.1 azul one size / eu plug mpvn3ql/a</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3714.99</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-iphone-14-128gb-6.1/139331604/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D17677383%26country%3Dbr%26srsltid%3DAfmBOop8ZXBHuzXxrT2XDVkM8cl7mw4Qx8hCN7zeFzAzGGG7AOBmiQvpO44&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjksdabuduGAxXjqpUCHRGADxYQguUECLUM&amp;usg=AOvVaw26V7-yt3jwupLy9QN29ul_</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>apple iphone 14 128gb starlight a2882 mpur3be (nano sim - esim) anatel</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3615.16</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.horizonplay.com.br/apple/iphone-de-vitrine/apple-iphone-14-128gb-5g-vitrine-tela-super-retina-xdr-oled-6-1-estelar-branco%3Fparceiro%3D8926%26srsltid%3DAfmBOorrcXWxRUup7fDb7vkjXpTgesxQoFpPAg1yA10KYs90Q8Xv3rJ1eus&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjksdabuduGAxXjqpUCHRGADxYQguUECNYM&amp;usg=AOvVaw169Hpgy91MG3MoMLYklwbQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>iphone 14 256gb branco ( estrelar )</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3300</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.brcelulares.com.br/produtos/iphone-14-256gb-branco-estrelar/%3Fvariant%3D840924753%26pf%3Dmc&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjksdabuduGAxXjqpUCHRGADxYQgOUECIkN&amp;usg=AOvVaw2TBZbs1q6ThT_Clmdivm2l</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>apple iphone 14 128gb 6.1 azul one size / eu plug mpuf3ql/a</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3767.49</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-iphone-14-128gb-6.1/139331605/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D17677384%26country%3Dbr%26srsltid%3DAfmBOoojptHC4mKeRBeAxn-pcL-f2zwH7OIl7Wd27fRyNkipGvB1HUaZSxs&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjksdabuduGAxXjqpUCHRGADxYQguUECP4N&amp;usg=AOvVaw2V3LfGmwzh5SmjUE3wzT-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>iphone 14 128gb - branco - como novo - grade a</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3641.4</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.outletdocelular.com.br/iphone/iphone-14-128gb%3Fparceiro%3D2710%26variant_id%3D8037%26srsltid%3DAfmBOooPwOQIloxhRVMxgktctYMWtjBGsrrq8KoqGL5X6K1N3T3fsOnSpsk&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjksdabuduGAxXjqpUCHRGADxYQgOUECNMO&amp;usg=AOvVaw1vMr_NG8wSrMHRNzg6eTdK</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>apple iphone 14 pro a2650 desbloqueado 128gb roxo profundo bom</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3418.3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.ebay.com/itm/175871723176%3Fchn%3Dps%26mkevt%3D1%26mkcid%3D28&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjksdabuduGAxXjqpUCHRGADxYQgOUECOIQ&amp;usg=AOvVaw1eI42yYRtI-of3WZJ4wQs3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>iphone 14 plus 128gb product (red) bom</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>3611.65</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/url?url=https://www.trocafone.com.br/iphone-14-plus-128gb/p%3Fidsku%3D43773&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiB2PrIgMeGAxXJGLkGHXp0AB0QgOUECJIP&amp;usg=AOvVaw1xfxnooqw3AKcPOFEihBEz</t>
+      <c r="B65" t="n">
+        <v>3730.65</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.trocafone.com.br/iphone-14-plus-128gb/p%3Fidsku%3D43773&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjksdabuduGAxXjqpUCHRGADxYQgOUECIQR&amp;usg=AOvVaw1cq00lqYbQPmcw71lGfA1R</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>apple iphone 14 azul 128gb</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3674.46</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://doji.com.br/product/apple-iphone-14-azul-128gb-muito-bom&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjksdabuduGAxXjqpUCHRGADxYQgOUECLcR&amp;usg=AOvVaw1RVL7Zj36HO4yLPCoVv3sW</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>apple iphone 14 pro max - 128gb 256gb 512gb 1tb - todas as cores - muito bom</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3565.6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.ebay.com/itm/276438548821%3Fchn%3Dps%26mkevt%3D1%26mkcid%3D28%26var%3D578981574954&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjksdabuduGAxXjqpUCHRGADxYQgOUECLUT&amp;usg=AOvVaw3fpiOKwGeG9djvkKMt0M6Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Smartphone Apple iPhone 14 Usado 256GB Câmera Dupla</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3527.92</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-14-usado-256gb-camera-dupla?_lc=88&amp;searchterm=iphone%2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Smartphone Apple iPhone 14 Usado 128GB Câmera Dupla</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3619</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-14-usado-128gb-camera-dupla?_lc=88&amp;searchterm=iphone%2014</t>
         </is>
       </c>
     </row>
